--- a/data/InaugurationInfo.xlsx
+++ b/data/InaugurationInfo.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianzheng/Dropbox/Tian_Teaching/G5243-ADS/Spring2017/Tutorials/speeches/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8080" yWindow="3420" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="1700" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,18 +12,18 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="91">
   <si>
     <t>President</t>
   </si>
@@ -154,9 +149,6 @@
   </si>
   <si>
     <t>Donald J. Trump</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
   <si>
     <t>Term</t>
@@ -310,11 +302,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -328,6 +320,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -356,7 +354,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -413,7 +411,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -468,7 +466,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -523,7 +521,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -578,7 +576,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -633,7 +631,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -688,7 +686,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -743,7 +741,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -798,7 +796,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -853,7 +851,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -908,7 +906,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -963,7 +961,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1018,7 +1016,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1073,7 +1071,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1128,7 +1126,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1183,7 +1181,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1238,7 +1236,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1293,7 +1291,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1348,7 +1346,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1403,7 +1401,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1458,7 +1456,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1513,7 +1511,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1568,7 +1566,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1623,7 +1621,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1678,7 +1676,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1733,7 +1731,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1788,7 +1786,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1843,7 +1841,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1898,7 +1896,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1953,7 +1951,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2008,7 +2006,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2063,7 +2061,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2118,7 +2116,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2173,7 +2171,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2228,7 +2226,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2283,7 +2281,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2338,7 +2336,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2393,7 +2391,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2448,7 +2446,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2503,7 +2501,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2558,7 +2556,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2613,7 +2611,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2668,7 +2666,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2723,7 +2721,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2778,7 +2776,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2833,7 +2831,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2888,7 +2886,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2943,7 +2941,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -2998,7 +2996,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -3053,7 +3051,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -3108,7 +3106,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -3163,7 +3161,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -3218,7 +3216,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -3273,7 +3271,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -3328,7 +3326,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -3383,7 +3381,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -3438,7 +3436,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -3493,7 +3491,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -3548,7 +3546,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -3603,7 +3601,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -3658,7 +3656,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -3713,7 +3711,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -3768,7 +3766,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -3823,7 +3821,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -3878,7 +3876,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -3933,7 +3931,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -3988,7 +3986,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -4043,7 +4041,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -4098,7 +4096,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -4153,7 +4151,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -4208,7 +4206,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -4263,7 +4261,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -4318,7 +4316,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -4373,7 +4371,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -4428,7 +4426,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -4483,7 +4481,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -4538,7 +4536,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -4593,7 +4591,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -4648,7 +4646,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -4703,7 +4701,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -4758,7 +4756,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -4813,7 +4811,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -4868,7 +4866,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -4923,7 +4921,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -4978,7 +4976,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -5033,7 +5031,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -5088,7 +5086,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -5143,7 +5141,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -5198,7 +5196,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -5253,7 +5251,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -5308,7 +5306,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -5363,7 +5361,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -5418,7 +5416,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -5473,7 +5471,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -5528,7 +5526,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -5583,7 +5581,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -5638,7 +5636,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -5693,7 +5691,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -5748,7 +5746,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -5803,7 +5801,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -5858,7 +5856,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -5913,7 +5911,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -5968,7 +5966,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -6023,7 +6021,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -6078,7 +6076,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -6133,7 +6131,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -6188,7 +6186,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -6243,7 +6241,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -6298,7 +6296,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -6353,7 +6351,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -6408,7 +6406,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -6463,7 +6461,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -6518,7 +6516,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -6573,7 +6571,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -6628,7 +6626,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -6683,7 +6681,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -6738,7 +6736,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -6798,7 +6796,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -6853,7 +6851,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -6908,7 +6906,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -6963,7 +6961,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -7018,7 +7016,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -7073,7 +7071,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -7128,7 +7126,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -7183,7 +7181,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -7238,7 +7236,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -7293,7 +7291,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -7348,7 +7346,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -7403,7 +7401,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -7458,7 +7456,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -7513,7 +7511,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -7568,7 +7566,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -7623,7 +7621,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -7678,7 +7676,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -7733,7 +7731,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -7788,7 +7786,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -7843,7 +7841,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -7898,7 +7896,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -7953,7 +7951,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -8008,7 +8006,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -8063,7 +8061,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -8118,7 +8116,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -8173,7 +8171,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -8228,7 +8226,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -8283,7 +8281,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -8338,7 +8336,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -8393,7 +8391,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -8448,7 +8446,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -8503,7 +8501,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -8558,7 +8556,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -8613,7 +8611,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -8668,7 +8666,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -8723,7 +8721,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -8778,7 +8776,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -8833,7 +8831,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -8888,7 +8886,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -8943,7 +8941,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -8998,7 +8996,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -9053,7 +9051,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -9108,7 +9106,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -9163,7 +9161,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -9218,7 +9216,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -9273,7 +9271,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -9328,7 +9326,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -9383,7 +9381,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -9438,7 +9436,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -9493,7 +9491,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -9548,7 +9546,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -9603,7 +9601,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -9658,7 +9656,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -9713,7 +9711,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -9768,7 +9766,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -9823,7 +9821,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -9878,7 +9876,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -9933,7 +9931,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -9988,7 +9986,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -10043,7 +10041,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -10098,7 +10096,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -10153,7 +10151,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -10208,7 +10206,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -10263,7 +10261,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -10318,7 +10316,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -10373,7 +10371,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -10428,7 +10426,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -10483,7 +10481,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -10538,7 +10536,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -10593,7 +10591,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -10648,7 +10646,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -10703,7 +10701,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -10758,7 +10756,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -10813,7 +10811,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -10868,7 +10866,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -10923,7 +10921,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -10978,7 +10976,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -11033,7 +11031,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -11088,7 +11086,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -11143,7 +11141,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -11198,7 +11196,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -11253,7 +11251,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -11308,7 +11306,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -11363,7 +11361,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -11418,7 +11416,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -11473,7 +11471,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -11528,7 +11526,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -11583,7 +11581,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -11638,7 +11636,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -11693,7 +11691,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -11748,7 +11746,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -11803,7 +11801,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -11858,7 +11856,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -11913,7 +11911,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -11968,7 +11966,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -12023,7 +12021,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -12078,7 +12076,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -12133,7 +12131,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -12188,7 +12186,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -12243,7 +12241,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -12298,7 +12296,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -12353,7 +12351,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -12408,7 +12406,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -12463,7 +12461,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -12518,7 +12516,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -12573,7 +12571,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -12628,7 +12626,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -12683,7 +12681,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -12738,7 +12736,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -12793,7 +12791,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -12848,7 +12846,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -12903,7 +12901,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -12958,7 +12956,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -13013,7 +13011,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -13071,7 +13069,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -13106,7 +13104,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -13283,7 +13281,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13293,1024 +13291,1030 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="16">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2">
         <v>1431</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="16">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="16">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2">
         <v>2321</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="16">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2">
         <v>1730</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="16">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2">
         <v>2166</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="16">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2">
         <v>1177</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="16">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2">
         <v>1211</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="16">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2">
         <v>3375</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="16">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2">
         <v>4472</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="16">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2">
         <v>2915</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="16">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="2">
         <v>1128</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="16">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2">
         <v>1176</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="16">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2">
         <v>3843</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="16">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2">
         <v>8460</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="16">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2">
         <v>4809</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="16">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2">
         <v>1090</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="16">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2">
         <v>3336</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="16">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2">
         <v>2831</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="16">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2">
         <v>3637</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="16">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="2">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="16">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2">
         <v>1127</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="16">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="2">
         <v>1339</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="16">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="2">
         <v>2486</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="16">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2">
         <v>2979</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="16">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2">
         <v>1686</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="16">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2">
         <v>4392</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="16">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="16">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2">
         <v>3968</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="16">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2">
         <v>2218</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="16">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2">
         <v>984</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="16">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2">
         <v>5434</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="16">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2">
         <v>1704</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="16">
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1">
         <v>2</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2">
         <v>1526</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="16">
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2">
         <v>3329</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="16">
       <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E36" s="2">
         <v>4055</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="16">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E37" s="2">
         <v>3672</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="16">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2">
         <v>1880</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="16">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="1">
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2">
         <v>1808</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="16">
       <c r="A40" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" s="1">
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2">
         <v>1359</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="16">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="1">
         <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2">
         <v>559</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="16">
       <c r="A42" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2">
         <v>2273</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="16">
       <c r="A43" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E43" s="2">
         <v>2459</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="16">
       <c r="A44" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" s="1">
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E44" s="2">
         <v>1658</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="16">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E45" s="2">
         <v>1366</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="16">
       <c r="A46" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E46" s="2">
         <v>1507</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="16">
       <c r="A47" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E47" s="2">
         <v>2128</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="16">
       <c r="A48" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C48" s="1">
         <v>2</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E48" s="2">
         <v>1803</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="16">
       <c r="A49" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E49" s="2">
         <v>1229</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="16">
       <c r="A50" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E50" s="2">
         <v>2427</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="16">
       <c r="A51" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51" s="1">
         <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E51" s="2">
         <v>2561</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="16">
       <c r="A52" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E52" s="2">
         <v>2320</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="16">
       <c r="A53" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E53" s="2">
         <v>1598</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="16">
       <c r="A54" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C54" s="1">
         <v>2</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E54" s="2">
         <v>2155</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="16">
       <c r="A55" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E55" s="2">
         <v>1592</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="16">
       <c r="A56" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C56" s="1">
         <v>2</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E56" s="2">
         <v>2071</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="16">
       <c r="A57" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E57" s="2">
         <v>2395</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="16">
       <c r="A58" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" s="1">
         <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E58" s="2">
         <v>2096</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="16">
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1433</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14320,9 +14324,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>